--- a/data/542/KOSTAT/old/Quarterly_previous.xlsx
+++ b/data/542/KOSTAT/old/Quarterly_previous.xlsx
@@ -429,7 +429,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2021.10.07 15:14</t>
+    <t>2021.12.28 13:39</t>
   </si>
   <si>
     <t>○ Table URL</t>
